--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_SAN_LUONG.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_SAN_LUONG.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2SProject\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project Github\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FF5765-7B3F-467A-A9FB-A2C21A8BCE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sản Lượng theo tháng" sheetId="1" r:id="rId1"/>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,12 +157,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -348,47 +355,47 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,43 +676,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="14" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -715,66 +714,66 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -790,8 +789,8 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -815,43 +814,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -861,47 +859,47 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -916,45 +914,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.21875" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="3" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -965,76 +958,76 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="15" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="12" t="s">
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1047,8 +1040,8 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_SAN_LUONG.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_SAN_LUONG.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project Github\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FF5765-7B3F-467A-A9FB-A2C21A8BCE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4B0147-6431-4071-A2D1-813EDEC520A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sản Lượng theo tháng" sheetId="1" r:id="rId1"/>
     <sheet name="Sản Lượng theo chi nhánh" sheetId="4" r:id="rId2"/>
     <sheet name="Sản Lượng theo sân bay" sheetId="5" r:id="rId3"/>
+    <sheet name="Sản lượng tra nạp cung ứng" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>CHỈ TIÊU</t>
   </si>
@@ -114,6 +115,15 @@
   </si>
   <si>
     <t>HKQT</t>
+  </si>
+  <si>
+    <t>CỘNG NĐ</t>
+  </si>
+  <si>
+    <t>CỘNG QT</t>
+  </si>
+  <si>
+    <t>BAY QUỐC TẾ</t>
   </si>
 </sst>
 </file>
@@ -333,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -361,16 +371,31 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -382,20 +407,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,32 +708,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:I3"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="14" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="14" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -714,66 +743,66 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -789,7 +818,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -822,34 +851,34 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -859,46 +888,46 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -921,33 +950,33 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="3" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -958,39 +987,39 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="16" t="s">
         <v>28</v>
       </c>
@@ -998,35 +1027,35 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1040,7 +1069,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
     </row>
   </sheetData>
@@ -1055,4 +1084,297 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010D3DAE-F3E5-402F-A211-433F230AA2A6}">
+  <dimension ref="A1:AB9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" customWidth="1"/>
+    <col min="18" max="19" width="17.6640625" customWidth="1"/>
+    <col min="20" max="20" width="17.44140625" customWidth="1"/>
+    <col min="21" max="21" width="17.88671875" customWidth="1"/>
+    <col min="22" max="22" width="17.6640625" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" customWidth="1"/>
+    <col min="24" max="24" width="17.5546875" customWidth="1"/>
+    <col min="25" max="25" width="16.44140625" customWidth="1"/>
+    <col min="26" max="26" width="17.33203125" customWidth="1"/>
+    <col min="27" max="27" width="17.5546875" customWidth="1"/>
+    <col min="28" max="28" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB6" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="4" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+    </row>
+    <row r="8" spans="1:28" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+    </row>
+    <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="N6:Y6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="G2:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_SAN_LUONG.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_SAN_LUONG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4B0147-6431-4071-A2D1-813EDEC520A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A46B116-ED9B-451B-BD20-FD52C3F4F609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sản Lượng theo tháng" sheetId="1" r:id="rId1"/>
@@ -343,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -355,28 +355,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -407,9 +404,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -418,13 +412,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,7 +699,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,14 +713,14 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -743,12 +730,12 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -759,80 +746,80 @@
       <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -848,7 +835,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,14 +858,14 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -888,12 +875,12 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -904,35 +891,35 @@
       <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -944,13 +931,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,114 +950,157 @@
     <col min="15" max="15" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:28" s="4" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="16" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="13" t="s">
+    <row r="7" spans="1:28" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:28" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+    </row>
+    <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1090,9 +1120,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010D3DAE-F3E5-402F-A211-433F230AA2A6}">
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,12 +1163,12 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="N2" s="2"/>
@@ -1162,10 +1192,10 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="N3" s="2"/>
@@ -1187,193 +1217,193 @@
       <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="26" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="16" t="s">
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AA6" s="16" t="s">
+      <c r="AA6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AB6" s="16" t="s">
+      <c r="AB6" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:28" s="4" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="T7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="U7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="V7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="W7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="14" t="s">
+      <c r="X7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Y7" s="14" t="s">
+      <c r="Y7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
     </row>
     <row r="8" spans="1:28" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
     </row>
     <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="G2:J3"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="N6:Y6"/>
     <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="G2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_SAN_LUONG.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_SAN_LUONG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A46B116-ED9B-451B-BD20-FD52C3F4F609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB185135-19F0-489F-9A7B-B58FE514D995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sản Lượng theo tháng" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +166,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val=".VnTime"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -176,7 +194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,8 +358,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -358,15 +377,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -377,48 +387,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 100" xfId="1" xr:uid="{C72D21DA-3642-4341-91F8-6D82FA73ECE4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -695,103 +720,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="14" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1"/>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.9" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1"/>
+    <row r="5" spans="1:14" s="1" customFormat="1">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -805,8 +831,8 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:14" s="1" customFormat="1">
+      <c r="A8" s="10"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -826,6 +852,7 @@
     <mergeCell ref="D2:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -835,87 +862,87 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:B8"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1"/>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="13.9" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="1" customFormat="1"/>
+    <row r="5" spans="1:13" s="1" customFormat="1">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
+    <row r="7" spans="1:13" s="1" customFormat="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:13" s="1" customFormat="1">
+      <c r="A8" s="10"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -931,120 +958,392 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="3" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="1" customFormat="1"/>
+    <row r="2" spans="1:29" s="1" customFormat="1" ht="13.9" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="1" customFormat="1"/>
+    <row r="5" spans="1:29" s="1" customFormat="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:28" s="4" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:29" s="4" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="15" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
+    <row r="7" spans="1:29" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
-    <row r="8" spans="1:28" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+    <row r="8" spans="1:29" s="1" customFormat="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+    </row>
+    <row r="9" spans="1:29" s="1" customFormat="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="E2:J3"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="K6:K7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010D3DAE-F3E5-402F-A211-433F230AA2A6}">
+  <dimension ref="A1:AB9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="28" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="1" customFormat="1"/>
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="13.9" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:28" s="1" customFormat="1"/>
+    <row r="5" spans="1:28" s="1" customFormat="1">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+    </row>
+    <row r="8" spans="1:28" s="1" customFormat="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1072,8 +1371,8 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
     </row>
-    <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:28" s="1" customFormat="1">
+      <c r="A9" s="10"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1103,301 +1402,8 @@
       <c r="AB9" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="E2:J3"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="K6:K7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010D3DAE-F3E5-402F-A211-433F230AA2A6}">
-  <dimension ref="A1:AB9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8:XFD9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" customWidth="1"/>
-    <col min="16" max="16" width="17.5546875" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" customWidth="1"/>
-    <col min="18" max="19" width="17.6640625" customWidth="1"/>
-    <col min="20" max="20" width="17.44140625" customWidth="1"/>
-    <col min="21" max="21" width="17.88671875" customWidth="1"/>
-    <col min="22" max="22" width="17.6640625" customWidth="1"/>
-    <col min="23" max="23" width="17.33203125" customWidth="1"/>
-    <col min="24" max="24" width="17.5546875" customWidth="1"/>
-    <col min="25" max="25" width="16.44140625" customWidth="1"/>
-    <col min="26" max="26" width="17.33203125" customWidth="1"/>
-    <col min="27" max="27" width="17.5546875" customWidth="1"/>
-    <col min="28" max="28" width="16.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-    </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-    </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB6" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" s="4" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="W7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-    </row>
-    <row r="8" spans="1:28" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-    </row>
-    <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="AB6:AB7"/>
     <mergeCell ref="G2:J3"/>
     <mergeCell ref="B6:M6"/>
